--- a/Assets/06.Table/CommonEventAttend2.xlsx
+++ b/Assets/06.Table/CommonEventAttend2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD64EB71-6F52-400B-A609-A5B7E398249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51912A4E-98E4-431F-A4D3-7999C04B4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -104,8 +104,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -146,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -486,7 +490,7 @@
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -517,16 +521,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>7288</v>
       </c>
       <c r="D2">
-        <v>40000000000</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>7272</v>
       </c>
       <c r="F2">
-        <v>80000000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -537,16 +541,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>50000</v>
+        <v>50000000000</v>
       </c>
       <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>150000</v>
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100000000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -557,16 +561,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>350</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -577,16 +581,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>9010</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="E5">
-        <v>9010</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>50000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -597,16 +601,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>9010</v>
       </c>
       <c r="D6">
-        <v>40000000000</v>
+        <v>40000</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>9010</v>
       </c>
       <c r="F6">
-        <v>80000000000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -617,16 +621,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>50000</v>
+        <v>50000000000</v>
       </c>
       <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>150000</v>
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100000000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -637,16 +641,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>350</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -657,16 +661,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>9010</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="E9">
-        <v>9010</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>50000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -677,16 +681,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>9010</v>
       </c>
       <c r="D10">
-        <v>40000000000</v>
+        <v>40000</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>9010</v>
       </c>
       <c r="F10">
-        <v>80000000000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -697,16 +701,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>50000</v>
+        <v>50000000000</v>
       </c>
       <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>150000</v>
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100000000000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -717,16 +721,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>350</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -737,16 +741,16 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>9010</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="E13">
-        <v>9010</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>50000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,16 +761,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>9010</v>
       </c>
       <c r="D14">
-        <v>40000000000</v>
+        <v>40000</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>9010</v>
       </c>
       <c r="F14">
-        <v>80000000000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -777,16 +781,16 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>50000</v>
+        <v>50000000000</v>
       </c>
       <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>150000</v>
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>100000000000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,16 +801,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>350</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -817,16 +821,16 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>9010</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="E17">
-        <v>9010</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>50000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -837,16 +841,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>9010</v>
       </c>
       <c r="D18">
-        <v>40000000000</v>
+        <v>40000</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>9010</v>
       </c>
       <c r="F18">
-        <v>80000000000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -857,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>50000</v>
+        <v>50000000000</v>
       </c>
       <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19">
-        <v>150000</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>100000000000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -877,16 +881,16 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>150</v>
+        <v>50000</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>350</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -897,16 +901,36 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>9010</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="E21">
-        <v>9010</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>50000</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>9010</v>
+      </c>
+      <c r="D22">
+        <v>40000</v>
+      </c>
+      <c r="E22">
+        <v>9010</v>
+      </c>
+      <c r="F22">
+        <v>80000</v>
       </c>
     </row>
   </sheetData>
@@ -973,18 +997,18 @@
       </c>
       <c r="D4" s="3">
         <f>SUMIF(CommonEventAttend2!C:C,balance!C4,CommonEventAttend2!D:D)</f>
-        <v>200000000000</v>
+        <v>250000000000</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>SUMIF(CommonEventAttend2!E:E,balance!E4,CommonEventAttend2!F:F)</f>
-        <v>400000000000</v>
+        <v>500000000000</v>
       </c>
       <c r="G4" s="3">
         <f>SUM(D4,F4)</f>
-        <v>600000000000</v>
+        <v>750000000000</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -1019,18 +1043,18 @@
       </c>
       <c r="D6" s="3">
         <f>SUMIF(CommonEventAttend2!C:C,balance!C6,CommonEventAttend2!D:D)</f>
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
       <c r="F6" s="3">
         <f>SUMIF(CommonEventAttend2!E:E,balance!E6,CommonEventAttend2!F:F)</f>
-        <v>1750</v>
+        <v>3000</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -1042,18 +1066,18 @@
       </c>
       <c r="D7" s="3">
         <f>SUMIF(CommonEventAttend2!C:C,balance!C7,CommonEventAttend2!D:D)</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E7">
         <v>9010</v>
       </c>
       <c r="F7" s="3">
         <f>SUMIF(CommonEventAttend2!E:E,balance!E7,CommonEventAttend2!F:F)</f>
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>350000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/CommonEventAttend2.xlsx
+++ b/Assets/06.Table/CommonEventAttend2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51912A4E-98E4-431F-A4D3-7999C04B4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268CE88-B61B-4BB3-8FE3-EFE3D81E920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -104,9 +104,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -147,7 +146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,9 +157,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -521,16 +517,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7288</v>
+        <v>9053</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>7272</v>
+        <v>9053</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -541,16 +537,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>9055</v>
       </c>
       <c r="D3">
-        <v>50000000000</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>100000000000</v>
+        <v>9055</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -561,16 +557,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>9063</v>
       </c>
       <c r="D4">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>9063</v>
       </c>
       <c r="F4">
-        <v>150000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -581,16 +577,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>9041</v>
       </c>
       <c r="D5">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>9041</v>
       </c>
       <c r="F5">
-        <v>600</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -601,16 +597,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>9010</v>
+        <v>9053</v>
       </c>
       <c r="D6">
-        <v>40000</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>9010</v>
+        <v>9053</v>
       </c>
       <c r="F6">
-        <v>80000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -621,16 +617,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>9055</v>
       </c>
       <c r="D7">
-        <v>50000000000</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>100000000000</v>
+        <v>9055</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -641,16 +637,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>9063</v>
       </c>
       <c r="D8">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>9063</v>
       </c>
       <c r="F8">
-        <v>150000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -661,16 +657,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>9041</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>9041</v>
       </c>
       <c r="F9">
-        <v>600</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -681,16 +677,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>9010</v>
+        <v>9053</v>
       </c>
       <c r="D10">
-        <v>40000</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>9010</v>
+        <v>9053</v>
       </c>
       <c r="F10">
-        <v>80000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -701,16 +697,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>9055</v>
       </c>
       <c r="D11">
-        <v>50000000000</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>100000000000</v>
+        <v>9055</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -721,16 +717,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>9063</v>
       </c>
       <c r="D12">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>9063</v>
       </c>
       <c r="F12">
-        <v>150000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -741,16 +737,16 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>9041</v>
       </c>
       <c r="D13">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>9041</v>
       </c>
       <c r="F13">
-        <v>600</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -761,16 +757,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>9010</v>
+        <v>9053</v>
       </c>
       <c r="D14">
-        <v>40000</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>9010</v>
+        <v>9053</v>
       </c>
       <c r="F14">
-        <v>80000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -781,16 +777,16 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>9055</v>
       </c>
       <c r="D15">
-        <v>50000000000</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>100000000000</v>
+        <v>9055</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -801,16 +797,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>9063</v>
       </c>
       <c r="D16">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>9063</v>
       </c>
       <c r="F16">
-        <v>150000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -821,16 +817,16 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>9041</v>
       </c>
       <c r="D17">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>9041</v>
       </c>
       <c r="F17">
-        <v>600</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -841,16 +837,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>9010</v>
+        <v>9053</v>
       </c>
       <c r="D18">
-        <v>40000</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>9010</v>
+        <v>9053</v>
       </c>
       <c r="F18">
-        <v>80000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -861,16 +857,16 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>9055</v>
       </c>
       <c r="D19">
-        <v>50000000000</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>100000000000</v>
+        <v>9055</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -881,16 +877,16 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>9063</v>
       </c>
       <c r="D20">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>9063</v>
       </c>
       <c r="F20">
-        <v>150000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -901,36 +897,16 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>9041</v>
       </c>
       <c r="D21">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>9041</v>
       </c>
       <c r="F21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>9010</v>
-      </c>
-      <c r="D22">
-        <v>40000</v>
-      </c>
-      <c r="E22">
-        <v>9010</v>
-      </c>
-      <c r="F22">
-        <v>80000</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -997,18 +973,18 @@
       </c>
       <c r="D4" s="3">
         <f>SUMIF(CommonEventAttend2!C:C,balance!C4,CommonEventAttend2!D:D)</f>
-        <v>250000000000</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>SUMIF(CommonEventAttend2!E:E,balance!E4,CommonEventAttend2!F:F)</f>
-        <v>500000000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <f>SUM(D4,F4)</f>
-        <v>750000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -1020,18 +996,18 @@
       </c>
       <c r="D5" s="3">
         <f>SUMIF(CommonEventAttend2!C:C,balance!C5,CommonEventAttend2!D:D)</f>
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
       <c r="F5" s="3">
         <f>SUMIF(CommonEventAttend2!E:E,balance!E5,CommonEventAttend2!F:F)</f>
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ref="G5:G7" si="0">SUM(D5,F5)</f>
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -1043,18 +1019,18 @@
       </c>
       <c r="D6" s="3">
         <f>SUMIF(CommonEventAttend2!C:C,balance!C6,CommonEventAttend2!D:D)</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
       <c r="F6" s="3">
         <f>SUMIF(CommonEventAttend2!E:E,balance!E6,CommonEventAttend2!F:F)</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -1066,18 +1042,18 @@
       </c>
       <c r="D7" s="3">
         <f>SUMIF(CommonEventAttend2!C:C,balance!C7,CommonEventAttend2!D:D)</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>9010</v>
       </c>
       <c r="F7" s="3">
         <f>SUMIF(CommonEventAttend2!E:E,balance!E7,CommonEventAttend2!F:F)</f>
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/CommonEventAttend2.xlsx
+++ b/Assets/06.Table/CommonEventAttend2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E268CE88-B61B-4BB3-8FE3-EFE3D81E920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A6489-6182-4412-B980-BE14CBC35CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonEventAttend2" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +217,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -323,7 +323,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -517,16 +517,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -537,16 +537,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -557,16 +557,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -577,16 +577,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -597,16 +597,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -617,16 +617,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -637,16 +637,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -657,16 +657,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -677,16 +677,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -697,16 +697,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -717,16 +717,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -737,16 +737,16 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,16 +757,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -777,16 +777,16 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,16 +797,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -817,16 +817,16 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -837,16 +837,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -857,16 +857,16 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -877,16 +877,16 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -897,16 +897,16 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
